--- a/data/trans_orig/Q5408-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F29163-8F32-4117-AA29-767B326EA633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1571820A-94DC-4807-A615-B4A474DDC7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63D15869-3D05-4542-8C8B-C86452D5EA71}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E5BA743-39A0-4E0E-ACF8-B9B153CD28CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="527">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>11,89%</t>
+    <t>12,37%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -125,7 +125,7 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>88,11%</t>
+    <t>87,63%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -143,16 +143,16 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,32%</t>
+    <t>3,78%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>4,57%</t>
@@ -167,19 +167,19 @@
     <t>6,11%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>93,56%</t>
@@ -194,10 +194,10 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -209,1390 +209,1417 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>3,65%</t>
+    <t>3,67%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77985665-ABBA-4351-BFFB-EC946B5A18F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AE8976-836E-4A66-B5D9-308352638441}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2463,7 +2490,7 @@
         <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>198423</v>
+        <v>198424</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -2514,7 +2541,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -2645,10 +2672,10 @@
         <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -2657,13 +2684,13 @@
         <v>172961</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>302</v>
@@ -2672,13 +2699,13 @@
         <v>314070</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2761,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2752,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2767,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2782,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2824,13 @@
         <v>2778</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2812,13 +2839,13 @@
         <v>10086</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2827,13 +2854,13 @@
         <v>12864</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,13 +2875,13 @@
         <v>101593</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>131</v>
@@ -2863,13 +2890,13 @@
         <v>125764</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>230</v>
@@ -2878,13 +2905,13 @@
         <v>227357</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,7 +2967,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2952,13 +2979,13 @@
         <v>1669</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2967,13 +2994,13 @@
         <v>2021</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2982,13 +3009,13 @@
         <v>3690</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,13 +3030,13 @@
         <v>2548</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3018,13 +3045,13 @@
         <v>5517</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -3033,13 +3060,13 @@
         <v>8066</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3081,13 @@
         <v>133000</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -3069,13 +3096,13 @@
         <v>201239</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>344</v>
@@ -3084,13 +3111,13 @@
         <v>334240</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3185,13 @@
         <v>1669</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3173,13 +3200,13 @@
         <v>5683</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -3188,13 +3215,13 @@
         <v>7352</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3236,13 @@
         <v>17441</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -3224,13 +3251,13 @@
         <v>31725</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -3239,13 +3266,13 @@
         <v>49165</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3287,13 @@
         <v>483356</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H26" s="7">
         <v>627</v>
@@ -3275,13 +3302,13 @@
         <v>639434</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>1129</v>
@@ -3290,13 +3317,13 @@
         <v>1122790</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,7 +3379,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3373,7 +3400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89DDF91-FF52-4104-8E12-C0AB3341F12E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C6EA5A-4AA1-430F-A871-23309463E373}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3390,7 +3417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3503,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3518,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3533,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3575,13 @@
         <v>965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3563,13 +3590,13 @@
         <v>1131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3578,13 +3605,13 @@
         <v>2096</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,10 +3626,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3614,10 +3641,10 @@
         <v>24063</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3629,10 +3656,10 @@
         <v>44296</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -3703,13 +3730,13 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3718,13 +3745,13 @@
         <v>2123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3733,13 +3760,13 @@
         <v>4248</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3781,13 @@
         <v>3070</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3769,13 +3796,13 @@
         <v>8587</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3784,13 +3811,13 @@
         <v>11657</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3832,13 @@
         <v>113154</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -3820,13 +3847,13 @@
         <v>130883</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>224</v>
@@ -3835,13 +3862,13 @@
         <v>244037</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3936,13 @@
         <v>4022</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -3924,13 +3951,13 @@
         <v>6524</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -3939,10 +3966,10 @@
         <v>10546</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>197</v>
@@ -3993,10 +4020,10 @@
         <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4038,13 @@
         <v>140935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -4026,13 +4053,13 @@
         <v>168548</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>282</v>
@@ -4041,13 +4068,13 @@
         <v>309483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4130,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4115,7 +4142,7 @@
         <v>3330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -4169,10 +4196,10 @@
         <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4181,13 +4208,13 @@
         <v>9595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4196,13 +4223,13 @@
         <v>14793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4244,13 @@
         <v>95069</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H18" s="7">
         <v>115</v>
@@ -4232,13 +4259,13 @@
         <v>124845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>198</v>
@@ -4309,7 +4336,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4402,13 +4429,13 @@
         <v>17519</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4450,13 @@
         <v>153553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>217</v>
@@ -4438,13 +4465,13 @@
         <v>229170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>357</v>
@@ -4453,13 +4480,13 @@
         <v>382724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,10 +4557,10 @@
         <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -4542,13 +4569,13 @@
         <v>19355</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -4557,13 +4584,13 @@
         <v>29824</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4605,13 @@
         <v>26223</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -4593,13 +4620,13 @@
         <v>46111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -4608,13 +4635,13 @@
         <v>72334</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4656,13 @@
         <v>522945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H26" s="7">
         <v>635</v>
@@ -4644,13 +4671,13 @@
         <v>677509</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
         <v>1106</v>
@@ -4659,13 +4686,13 @@
         <v>1200454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,7 +4748,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4742,7 +4769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC97487C-5839-4C95-AF6C-3A7FEA49E4FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60702F76-870B-41E1-9569-DDCC86A43E5D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4759,7 +4786,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4866,13 +4893,13 @@
         <v>845</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4887,7 +4914,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4902,7 +4929,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4944,13 @@
         <v>1792</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4932,13 +4959,13 @@
         <v>897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4947,13 +4974,13 @@
         <v>2689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4995,13 @@
         <v>19051</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>300</v>
+        <v>116</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4983,10 +5010,10 @@
         <v>22542</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -4998,13 +5025,13 @@
         <v>41593</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5099,13 @@
         <v>2507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5087,13 +5114,13 @@
         <v>2399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5102,13 +5129,13 @@
         <v>4905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5150,13 @@
         <v>5797</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -5138,13 +5165,13 @@
         <v>5954</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5153,13 +5180,13 @@
         <v>11751</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5201,13 @@
         <v>106742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -5189,13 +5216,13 @@
         <v>141598</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -5204,13 +5231,13 @@
         <v>248340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5305,13 @@
         <v>826</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5293,13 +5320,13 @@
         <v>4612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5308,13 +5335,13 @@
         <v>5438</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5356,13 @@
         <v>8608</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5344,13 +5371,13 @@
         <v>11404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5359,13 +5386,13 @@
         <v>20012</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5407,13 @@
         <v>155507</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>170</v>
@@ -5395,13 +5422,13 @@
         <v>203147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>334</v>
@@ -5410,13 +5437,13 @@
         <v>358655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,7 +5499,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5490,7 +5517,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5499,13 +5526,13 @@
         <v>2618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>349</v>
+        <v>125</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5514,13 +5541,13 @@
         <v>2618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5562,13 @@
         <v>2750</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>353</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5550,13 +5577,13 @@
         <v>11409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5565,13 +5592,13 @@
         <v>14159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5613,13 @@
         <v>112285</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>368</v>
       </c>
       <c r="H18" s="7">
         <v>107</v>
@@ -5601,13 +5628,13 @@
         <v>128569</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M18" s="7">
         <v>218</v>
@@ -5616,13 +5643,13 @@
         <v>240854</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>365</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,7 +5705,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5690,13 +5717,13 @@
         <v>1300</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5705,13 +5732,13 @@
         <v>3754</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5720,13 +5747,13 @@
         <v>5054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5768,13 @@
         <v>4576</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>265</v>
+        <v>379</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5756,13 +5783,13 @@
         <v>5284</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -5771,13 +5798,13 @@
         <v>9860</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>375</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5819,13 @@
         <v>168742</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -5807,13 +5834,13 @@
         <v>233743</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M22" s="7">
         <v>375</v>
@@ -5822,13 +5849,13 @@
         <v>402486</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5923,13 @@
         <v>5477</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -5911,13 +5938,13 @@
         <v>13383</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>196</v>
+        <v>397</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -5926,13 +5953,13 @@
         <v>18860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>398</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,13 +5974,13 @@
         <v>23524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>389</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -5962,13 +5989,13 @@
         <v>34948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -5977,13 +6004,13 @@
         <v>58472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>59</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +6025,13 @@
         <v>562328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="H26" s="7">
         <v>617</v>
@@ -6013,13 +6040,13 @@
         <v>729599</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M26" s="7">
         <v>1211</v>
@@ -6028,13 +6055,13 @@
         <v>1291927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,7 +6117,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6111,7 +6138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC564C92-8608-4EB7-96B5-EAD2581CFAD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A1ECF8-B269-40FA-8CCF-79F2D256E478}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6128,7 +6155,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6241,7 +6268,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6250,13 +6277,13 @@
         <v>484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>405</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6265,13 +6292,13 @@
         <v>858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>406</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6313,13 @@
         <v>350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>408</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6301,13 +6328,13 @@
         <v>3774</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>36</v>
+        <v>420</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6316,13 +6343,13 @@
         <v>4124</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,10 +6364,10 @@
         <v>28940</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6352,13 +6379,13 @@
         <v>41162</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M6" s="7">
         <v>146</v>
@@ -6367,13 +6394,13 @@
         <v>70103</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6468,13 @@
         <v>1233</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6456,13 +6483,13 @@
         <v>3196</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>427</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -6471,13 +6498,13 @@
         <v>4429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>437</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6519,13 @@
         <v>5552</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>132</v>
+        <v>440</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>222</v>
+        <v>441</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -6507,13 +6534,13 @@
         <v>12121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -6522,13 +6549,13 @@
         <v>17673</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>434</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>89</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,13 +6570,13 @@
         <v>118192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="H10" s="7">
         <v>297</v>
@@ -6558,13 +6585,13 @@
         <v>131902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="M10" s="7">
         <v>490</v>
@@ -6573,13 +6600,13 @@
         <v>250094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6674,13 @@
         <v>1154</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -6662,13 +6689,13 @@
         <v>4160</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -6677,13 +6704,13 @@
         <v>5313</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>448</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>132</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,10 +6728,10 @@
         <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>449</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -6713,13 +6740,13 @@
         <v>20704</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>460</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -6728,13 +6755,13 @@
         <v>28154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6776,13 @@
         <v>165243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -6764,13 +6791,13 @@
         <v>217404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>643</v>
@@ -6779,13 +6806,13 @@
         <v>382646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,7 +6868,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6853,13 +6880,13 @@
         <v>1339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>474</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6868,13 +6895,13 @@
         <v>4240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>466</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>476</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6886,10 +6913,10 @@
         <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>333</v>
+        <v>477</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6931,13 @@
         <v>3248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>469</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6919,13 +6946,13 @@
         <v>10816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>481</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -6937,10 +6964,10 @@
         <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6982,13 @@
         <v>143603</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="H18" s="7">
         <v>267</v>
@@ -6970,13 +6997,13 @@
         <v>266058</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="M18" s="7">
         <v>455</v>
@@ -6985,13 +7012,13 @@
         <v>409662</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,7 +7074,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7059,13 +7086,13 @@
         <v>1603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>494</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7074,13 +7101,13 @@
         <v>5882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -7089,13 +7116,13 @@
         <v>7484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7137,13 @@
         <v>4491</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -7125,13 +7152,13 @@
         <v>16153</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -7140,13 +7167,13 @@
         <v>20644</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>190</v>
+        <v>503</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>492</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7188,13 @@
         <v>214150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>491</v>
@@ -7176,13 +7203,13 @@
         <v>287518</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>508</v>
       </c>
       <c r="M22" s="7">
         <v>808</v>
@@ -7191,13 +7218,13 @@
         <v>501669</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7292,13 @@
         <v>5702</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>499</v>
+        <v>57</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -7280,13 +7307,13 @@
         <v>17962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>299</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>374</v>
+        <v>513</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>514</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -7295,13 +7322,13 @@
         <v>23664</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>503</v>
+        <v>379</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7343,13 @@
         <v>21091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>505</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -7331,13 +7358,13 @@
         <v>63569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>507</v>
+        <v>404</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -7346,13 +7373,13 @@
         <v>84659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7394,13 @@
         <v>670129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>365</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H26" s="7">
         <v>1559</v>
@@ -7382,13 +7409,13 @@
         <v>944044</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>2542</v>
@@ -7397,13 +7424,13 @@
         <v>1614173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>517</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,7 +7486,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5408-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1571820A-94DC-4807-A615-B4A474DDC7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9113E069-6DDA-4EB2-957E-292DBAE56EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E5BA743-39A0-4E0E-ACF8-B9B153CD28CE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C0C3A0B-BCC8-4E2A-9B54-3EA737C063FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="523">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No puede</t>
@@ -95,13 +95,13 @@
     <t>8,22%</t>
   </si>
   <si>
-    <t>27,68%</t>
+    <t>27,34%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>12,37%</t>
+    <t>11,92%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -119,16 +119,16 @@
     <t>91,78%</t>
   </si>
   <si>
-    <t>72,32%</t>
+    <t>72,66%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,02%</t>
@@ -137,1458 +137,1449 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
     <t>6,2%</t>
   </si>
   <si>
@@ -1599,9 +1590,6 @@
   </si>
   <si>
     <t>5,85%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
   </si>
   <si>
     <t>94,71%</t>
@@ -2031,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AE8976-836E-4A66-B5D9-308352638441}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49C0228-8A9E-440D-A270-9F91C2FC8C6E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2490,7 +2478,7 @@
         <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>198424</v>
+        <v>198423</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -2541,7 +2529,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -2672,10 +2660,10 @@
         <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>161</v>
@@ -2684,13 +2672,13 @@
         <v>172961</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>302</v>
@@ -2699,13 +2687,13 @@
         <v>314070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,7 +2749,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2779,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2794,7 +2782,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2809,7 +2797,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2812,13 @@
         <v>2778</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2839,13 +2827,13 @@
         <v>10086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2854,13 +2842,13 @@
         <v>12864</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2863,13 @@
         <v>101593</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>131</v>
@@ -2890,7 +2878,7 @@
         <v>125764</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>93</v>
@@ -2985,7 +2973,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2994,13 +2982,13 @@
         <v>2021</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3009,13 +2997,13 @@
         <v>3690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3018,13 @@
         <v>2548</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3045,10 +3033,10 @@
         <v>5517</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>109</v>
@@ -3200,7 +3188,7 @@
         <v>5683</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>124</v>
@@ -3400,7 +3388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C6EA5A-4AA1-430F-A871-23309463E373}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B3BE24-6D70-465E-AC5F-EC50888F680F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3730,13 +3718,13 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3745,13 +3733,13 @@
         <v>2123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3760,13 +3748,13 @@
         <v>4248</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3769,13 @@
         <v>3070</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3796,13 +3784,13 @@
         <v>8587</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3811,13 +3799,13 @@
         <v>11657</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3820,13 @@
         <v>113154</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -3847,13 +3835,13 @@
         <v>130883</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>224</v>
@@ -3862,13 +3850,13 @@
         <v>244037</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3924,13 @@
         <v>4022</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -3951,13 +3939,13 @@
         <v>6524</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -3966,13 +3954,13 @@
         <v>10546</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3975,13 @@
         <v>9921</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4002,13 +3990,13 @@
         <v>16348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4017,13 +4005,13 @@
         <v>26269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4026,13 @@
         <v>140935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -4053,13 +4041,13 @@
         <v>168548</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>282</v>
@@ -4068,13 +4056,13 @@
         <v>309483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,7 +4118,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4142,13 +4130,13 @@
         <v>3330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4157,13 +4145,13 @@
         <v>6579</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4172,13 +4160,13 @@
         <v>9910</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4181,13 @@
         <v>5199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4208,13 +4196,13 @@
         <v>9595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4223,13 +4211,13 @@
         <v>14793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4232,13 @@
         <v>95069</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H18" s="7">
         <v>115</v>
@@ -4259,13 +4247,13 @@
         <v>124845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="M18" s="7">
         <v>198</v>
@@ -4274,13 +4262,13 @@
         <v>219914</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4336,13 @@
         <v>992</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4363,13 +4351,13 @@
         <v>4128</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4378,13 +4366,13 @@
         <v>5120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4387,13 @@
         <v>7068</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -4414,13 +4402,13 @@
         <v>10451</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -4429,13 +4417,13 @@
         <v>17519</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4438,13 @@
         <v>153553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>217</v>
@@ -4465,13 +4453,13 @@
         <v>229170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>357</v>
@@ -4480,13 +4468,13 @@
         <v>382724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,10 +4545,10 @@
         <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -4569,13 +4557,13 @@
         <v>19355</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -4584,13 +4572,13 @@
         <v>29824</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,10 +4596,10 @@
         <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -4620,13 +4608,13 @@
         <v>46111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -4635,13 +4623,13 @@
         <v>72334</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4644,13 @@
         <v>522945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H26" s="7">
         <v>635</v>
@@ -4671,13 +4659,13 @@
         <v>677509</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
         <v>1106</v>
@@ -4686,13 +4674,13 @@
         <v>1200454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,7 +4757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60702F76-870B-41E1-9569-DDCC86A43E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BF3C9B-1488-4341-8444-E591E2A3734B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4786,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4893,13 +4881,13 @@
         <v>845</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4914,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4929,7 +4917,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4932,13 @@
         <v>1792</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4959,13 +4947,13 @@
         <v>897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4974,13 +4962,13 @@
         <v>2689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +4983,13 @@
         <v>19051</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -5010,10 +4998,10 @@
         <v>22542</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5025,13 +5013,13 @@
         <v>41593</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5087,13 @@
         <v>2507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5114,13 +5102,13 @@
         <v>2399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5129,13 +5117,13 @@
         <v>4905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5138,13 @@
         <v>5797</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -5165,13 +5153,13 @@
         <v>5954</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5180,13 +5168,13 @@
         <v>11751</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>322</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5189,13 @@
         <v>106742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -5216,28 +5204,28 @@
         <v>141598</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
       </c>
       <c r="N10" s="7">
-        <v>248340</v>
+        <v>248341</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5267,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5305,13 +5293,13 @@
         <v>826</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5320,13 +5308,13 @@
         <v>4612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5335,13 +5323,13 @@
         <v>5438</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5344,13 @@
         <v>8608</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5371,13 +5359,13 @@
         <v>11404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>110</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5386,13 +5374,13 @@
         <v>20012</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5395,13 @@
         <v>155507</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>170</v>
@@ -5422,13 +5410,13 @@
         <v>203147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>334</v>
@@ -5437,13 +5425,13 @@
         <v>358655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,7 +5487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5517,7 +5505,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5526,13 +5514,13 @@
         <v>2618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>125</v>
+        <v>349</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5541,13 +5529,13 @@
         <v>2618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5550,13 @@
         <v>2750</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5577,13 +5565,13 @@
         <v>11409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5592,13 +5580,13 @@
         <v>14159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5601,13 @@
         <v>112285</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H18" s="7">
         <v>107</v>
@@ -5628,13 +5616,13 @@
         <v>128569</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M18" s="7">
         <v>218</v>
@@ -5643,13 +5631,13 @@
         <v>240854</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>138</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5705,13 @@
         <v>1300</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5732,13 +5720,13 @@
         <v>3754</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5747,13 +5735,13 @@
         <v>5054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5756,13 @@
         <v>4576</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5783,13 +5771,13 @@
         <v>5284</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>382</v>
+        <v>87</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -5798,13 +5786,13 @@
         <v>9860</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>156</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5807,13 @@
         <v>168742</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -5834,13 +5822,13 @@
         <v>233743</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>375</v>
@@ -5849,13 +5837,13 @@
         <v>402486</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,13 +5911,13 @@
         <v>5477</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -5938,13 +5926,13 @@
         <v>13383</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -5953,13 +5941,13 @@
         <v>18860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,10 +5965,10 @@
         <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>396</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -5992,10 +5980,10 @@
         <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -6004,13 +5992,13 @@
         <v>58472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6013,13 @@
         <v>562328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H26" s="7">
         <v>617</v>
@@ -6040,13 +6028,13 @@
         <v>729599</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M26" s="7">
         <v>1211</v>
@@ -6055,13 +6043,13 @@
         <v>1291927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>412</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,7 +6126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A1ECF8-B269-40FA-8CCF-79F2D256E478}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A1DA71-871B-4128-8BA1-E8587EBA79E6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6155,7 +6143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6262,13 +6250,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6277,13 +6265,13 @@
         <v>484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6292,7 +6280,7 @@
         <v>858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -6313,13 +6301,13 @@
         <v>350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>418</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6328,13 +6316,13 @@
         <v>3774</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>420</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6343,13 +6331,13 @@
         <v>4124</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,10 +6352,10 @@
         <v>28940</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6379,13 +6367,13 @@
         <v>41162</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M6" s="7">
         <v>146</v>
@@ -6394,13 +6382,13 @@
         <v>70103</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6456,13 @@
         <v>1233</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6483,13 +6471,13 @@
         <v>3196</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -6498,13 +6486,13 @@
         <v>4429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6507,13 @@
         <v>5552</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -6534,13 +6522,13 @@
         <v>12121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -6549,13 +6537,13 @@
         <v>17673</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6558,13 @@
         <v>118192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H10" s="7">
         <v>297</v>
@@ -6585,13 +6573,13 @@
         <v>131902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M10" s="7">
         <v>490</v>
@@ -6600,13 +6588,13 @@
         <v>250094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,13 +6662,13 @@
         <v>1154</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -6689,13 +6677,13 @@
         <v>4160</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>346</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -6704,13 +6692,13 @@
         <v>5313</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>458</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>400</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,10 +6713,10 @@
         <v>7450</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>150</v>
@@ -6740,13 +6728,13 @@
         <v>20704</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -6755,13 +6743,13 @@
         <v>28154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6764,13 @@
         <v>165243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -6791,13 +6779,13 @@
         <v>217404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
         <v>643</v>
@@ -6806,13 +6794,13 @@
         <v>382646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,7 +6856,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6880,13 +6868,13 @@
         <v>1339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6895,13 +6883,13 @@
         <v>4240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>469</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6913,10 +6901,10 @@
         <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,13 +6919,13 @@
         <v>3248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6946,13 +6934,13 @@
         <v>10816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -6967,7 +6955,7 @@
         <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,13 +6970,13 @@
         <v>143603</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>485</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H18" s="7">
         <v>267</v>
@@ -7000,10 +6988,10 @@
         <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>488</v>
+        <v>385</v>
       </c>
       <c r="M18" s="7">
         <v>455</v>
@@ -7012,13 +7000,13 @@
         <v>409662</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7074,13 @@
         <v>1603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7101,13 +7089,13 @@
         <v>5882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>42</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -7116,10 +7104,10 @@
         <v>7484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>110</v>
@@ -7137,13 +7125,13 @@
         <v>4491</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -7152,13 +7140,13 @@
         <v>16153</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -7167,13 +7155,13 @@
         <v>20644</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>336</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,13 +7176,13 @@
         <v>214150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H22" s="7">
         <v>491</v>
@@ -7203,13 +7191,13 @@
         <v>287518</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>808</v>
@@ -7218,13 +7206,13 @@
         <v>501669</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7280,13 @@
         <v>5702</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>511</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -7307,13 +7295,13 @@
         <v>17962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -7322,13 +7310,13 @@
         <v>23664</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>379</v>
+        <v>511</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,13 +7331,13 @@
         <v>21091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>252</v>
+        <v>512</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -7358,13 +7346,13 @@
         <v>63569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -7373,13 +7361,13 @@
         <v>84659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,13 +7382,13 @@
         <v>670129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>520</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>1559</v>
@@ -7409,13 +7397,13 @@
         <v>944044</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M26" s="7">
         <v>2542</v>
@@ -7424,13 +7412,13 @@
         <v>1614173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5408-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9113E069-6DDA-4EB2-957E-292DBAE56EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E57DCCB4-5ACB-4FA9-A6B3-BCC792733F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C0C3A0B-BCC8-4E2A-9B54-3EA737C063FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{511FA9EB-2DBB-4EFB-BD74-05F55BB8E0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="518">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>8,22%</t>
   </si>
   <si>
-    <t>27,34%</t>
+    <t>27,68%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>11,92%</t>
+    <t>11,89%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -119,13 +119,13 @@
     <t>91,78%</t>
   </si>
   <si>
-    <t>72,66%</t>
+    <t>72,32%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>88,08%</t>
+    <t>88,11%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -137,1477 +137,1462 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
     <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49C0228-8A9E-440D-A270-9F91C2FC8C6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9094F9DB-04D4-4992-BC15-E29E717DFCFE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2878,13 +2863,13 @@
         <v>125764</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>230</v>
@@ -2893,13 +2878,13 @@
         <v>227357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,7 +2940,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2967,13 +2952,13 @@
         <v>1669</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2982,13 +2967,13 @@
         <v>2021</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2997,13 +2982,13 @@
         <v>3690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,10 +3006,10 @@
         <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3033,13 +3018,13 @@
         <v>5517</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -3048,13 +3033,13 @@
         <v>8066</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3054,13 @@
         <v>133000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -3084,13 +3069,13 @@
         <v>201239</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>344</v>
@@ -3099,13 +3084,13 @@
         <v>334240</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3158,13 @@
         <v>1669</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3191,10 +3176,10 @@
         <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -3203,13 +3188,13 @@
         <v>7352</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3209,13 @@
         <v>17441</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -3239,13 +3224,13 @@
         <v>31725</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -3254,13 +3239,13 @@
         <v>49165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3260,13 @@
         <v>483356</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="H26" s="7">
         <v>627</v>
@@ -3290,13 +3275,13 @@
         <v>639434</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>1129</v>
@@ -3305,13 +3290,13 @@
         <v>1122790</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3352,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3388,7 +3373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B3BE24-6D70-465E-AC5F-EC50888F680F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8D36AB-61F3-4079-B5E7-4DD1858BECC8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3405,7 +3390,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3518,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3533,7 +3518,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3548,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3548,13 @@
         <v>965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3578,13 +3563,13 @@
         <v>1131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3593,13 +3578,13 @@
         <v>2096</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,10 +3599,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3629,10 +3614,10 @@
         <v>24063</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3644,10 +3629,10 @@
         <v>44296</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -3718,13 +3703,13 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3733,13 +3718,13 @@
         <v>2123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3748,13 +3733,13 @@
         <v>4248</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3754,13 @@
         <v>3070</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3784,13 +3769,13 @@
         <v>8587</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3799,13 +3784,13 @@
         <v>11657</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3805,13 @@
         <v>113154</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -3835,13 +3820,13 @@
         <v>130883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>224</v>
@@ -3850,13 +3835,13 @@
         <v>244037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3909,13 @@
         <v>4022</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -3939,13 +3924,13 @@
         <v>6524</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -3954,13 +3939,13 @@
         <v>10546</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3960,13 @@
         <v>9921</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3990,13 +3975,13 @@
         <v>16348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4005,13 +3990,13 @@
         <v>26269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4011,13 @@
         <v>140935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -4041,13 +4026,13 @@
         <v>168548</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>282</v>
@@ -4056,13 +4041,13 @@
         <v>309483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4115,13 @@
         <v>3330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4145,13 +4130,13 @@
         <v>6579</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4160,13 +4145,13 @@
         <v>9910</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4166,13 @@
         <v>5199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4196,13 +4181,13 @@
         <v>9595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4211,13 +4196,13 @@
         <v>14793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4217,13 @@
         <v>95069</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H18" s="7">
         <v>115</v>
@@ -4247,13 +4232,13 @@
         <v>124845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M18" s="7">
         <v>198</v>
@@ -4262,13 +4247,13 @@
         <v>219914</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,7 +4309,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4336,13 +4321,13 @@
         <v>992</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4351,13 +4336,13 @@
         <v>4128</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4366,13 +4351,13 @@
         <v>5120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4372,13 @@
         <v>7068</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -4402,13 +4387,13 @@
         <v>10451</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -4417,13 +4402,13 @@
         <v>17519</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4423,13 @@
         <v>153553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>217</v>
@@ -4453,13 +4438,13 @@
         <v>229170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>357</v>
@@ -4468,13 +4453,13 @@
         <v>382724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,10 +4530,10 @@
         <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -4557,13 +4542,13 @@
         <v>19355</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -4572,13 +4557,13 @@
         <v>29824</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4578,13 @@
         <v>26223</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -4608,13 +4593,13 @@
         <v>46111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -4623,13 +4608,13 @@
         <v>72334</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4629,13 @@
         <v>522945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H26" s="7">
         <v>635</v>
@@ -4659,13 +4644,13 @@
         <v>677509</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>1106</v>
@@ -4674,13 +4659,13 @@
         <v>1200454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,7 +4721,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4757,7 +4742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BF3C9B-1488-4341-8444-E591E2A3734B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D726E96-8B8F-4D41-A5F6-A251ED482006}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4774,7 +4759,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4881,13 +4866,13 @@
         <v>845</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4902,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4917,7 +4902,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4917,13 @@
         <v>1792</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4947,13 +4932,13 @@
         <v>897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4962,13 +4947,13 @@
         <v>2689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4968,13 @@
         <v>19051</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4998,10 +4983,10 @@
         <v>22542</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5013,13 +4998,13 @@
         <v>41593</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5072,13 @@
         <v>2507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5102,13 +5087,13 @@
         <v>2399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5117,13 +5102,13 @@
         <v>4905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5123,13 @@
         <v>5797</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -5153,13 +5138,13 @@
         <v>5954</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5171,10 +5156,10 @@
         <v>316</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5174,13 @@
         <v>106742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -5204,28 +5189,28 @@
         <v>141598</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
       </c>
       <c r="N10" s="7">
-        <v>248341</v>
+        <v>248340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5252,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5293,13 +5278,13 @@
         <v>826</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5308,13 +5293,13 @@
         <v>4612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5323,13 +5308,13 @@
         <v>5438</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5329,13 @@
         <v>8608</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5359,13 +5344,13 @@
         <v>11404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5374,13 +5359,13 @@
         <v>20012</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5395,13 @@
         <v>203147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>334</v>
@@ -5535,7 +5520,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5535,13 @@
         <v>2750</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5565,13 +5550,13 @@
         <v>11409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5580,13 +5565,13 @@
         <v>14159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5586,13 @@
         <v>112285</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>362</v>
+        <v>70</v>
       </c>
       <c r="H18" s="7">
         <v>107</v>
@@ -5616,13 +5601,13 @@
         <v>128569</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M18" s="7">
         <v>218</v>
@@ -5631,13 +5616,13 @@
         <v>240854</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,7 +5678,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5705,13 +5690,13 @@
         <v>1300</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5720,13 +5705,13 @@
         <v>3754</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5735,13 +5720,13 @@
         <v>5054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5741,13 @@
         <v>4576</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>376</v>
+        <v>175</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5771,13 +5756,13 @@
         <v>5284</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>87</v>
+        <v>372</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -5786,13 +5771,13 @@
         <v>9860</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5792,13 @@
         <v>168742</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -5822,13 +5807,13 @@
         <v>233743</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>375</v>
@@ -5837,13 +5822,13 @@
         <v>402486</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>386</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5896,13 @@
         <v>5477</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>385</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -5926,13 +5911,13 @@
         <v>13383</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>359</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -5941,13 +5926,13 @@
         <v>18860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>393</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5947,13 @@
         <v>23524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -5977,13 +5962,13 @@
         <v>34948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -5992,13 +5977,13 @@
         <v>58472</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +5998,13 @@
         <v>562328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>617</v>
@@ -6028,13 +6013,13 @@
         <v>729599</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>1211</v>
@@ -6043,13 +6028,13 @@
         <v>1291927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>401</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,7 +6090,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6126,7 +6111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A1DA71-871B-4128-8BA1-E8587EBA79E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB27342-4A26-4283-AD61-2F0EEE3494F6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6143,7 +6128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6250,13 +6235,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6265,13 +6250,13 @@
         <v>484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6280,13 +6265,13 @@
         <v>858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6286,13 @@
         <v>350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>407</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>292</v>
+        <v>408</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6316,13 +6301,13 @@
         <v>3774</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6331,13 +6316,13 @@
         <v>4124</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,10 +6337,10 @@
         <v>28940</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6367,13 +6352,13 @@
         <v>41162</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M6" s="7">
         <v>146</v>
@@ -6382,13 +6367,13 @@
         <v>70103</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6441,13 @@
         <v>1233</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6471,13 +6456,13 @@
         <v>3196</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -6486,13 +6471,13 @@
         <v>4429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,13 +6492,13 @@
         <v>5552</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>433</v>
+        <v>132</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>434</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -6522,13 +6507,13 @@
         <v>12121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -6537,13 +6522,13 @@
         <v>17673</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>434</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>439</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6543,13 @@
         <v>118192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H10" s="7">
         <v>297</v>
@@ -6573,13 +6558,13 @@
         <v>131902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M10" s="7">
         <v>490</v>
@@ -6588,13 +6573,13 @@
         <v>250094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,13 +6647,13 @@
         <v>1154</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -6677,13 +6662,13 @@
         <v>4160</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>452</v>
+        <v>266</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -6692,13 +6677,13 @@
         <v>5313</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>447</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>448</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,13 +6698,13 @@
         <v>7450</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -6728,13 +6713,13 @@
         <v>20704</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>454</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -6743,13 +6728,13 @@
         <v>28154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,13 +6749,13 @@
         <v>165243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -6779,13 +6764,13 @@
         <v>217404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M14" s="7">
         <v>643</v>
@@ -6794,13 +6779,13 @@
         <v>382646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6853,13 @@
         <v>1339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>468</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6883,13 +6868,13 @@
         <v>4240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>471</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6901,10 +6886,10 @@
         <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>472</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6904,13 @@
         <v>3248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>469</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6934,13 +6919,13 @@
         <v>10816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -6952,10 +6937,10 @@
         <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,13 +6955,13 @@
         <v>143603</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>474</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H18" s="7">
         <v>267</v>
@@ -6985,13 +6970,13 @@
         <v>266058</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>385</v>
+        <v>477</v>
       </c>
       <c r="M18" s="7">
         <v>455</v>
@@ -7000,13 +6985,13 @@
         <v>409662</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,7 +7047,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7074,13 +7059,13 @@
         <v>1603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>486</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7089,13 +7074,13 @@
         <v>5882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -7104,13 +7089,13 @@
         <v>7484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7110,13 @@
         <v>4491</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -7140,13 +7125,13 @@
         <v>16153</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -7155,13 +7140,13 @@
         <v>20644</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>497</v>
+        <v>190</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7161,13 @@
         <v>214150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>491</v>
@@ -7191,13 +7176,13 @@
         <v>287518</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>808</v>
@@ -7206,13 +7191,13 @@
         <v>501669</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7265,13 @@
         <v>5702</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>57</v>
+        <v>499</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -7295,13 +7280,13 @@
         <v>17962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>293</v>
+        <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>374</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>509</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -7310,13 +7295,13 @@
         <v>23664</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>78</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7316,13 @@
         <v>21091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>328</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -7346,13 +7331,13 @@
         <v>63569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>400</v>
+        <v>507</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -7361,13 +7346,13 @@
         <v>84659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,13 +7367,13 @@
         <v>670129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>365</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H26" s="7">
         <v>1559</v>
@@ -7397,13 +7382,13 @@
         <v>944044</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>2542</v>
@@ -7412,13 +7397,13 @@
         <v>1614173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>253</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,7 +7459,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
